--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value732.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value732.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160325199996122</v>
+        <v>0.9019824266433716</v>
       </c>
       <c r="B1">
-        <v>1.649624405406291</v>
+        <v>1.270700573921204</v>
       </c>
       <c r="C1">
+        <v>2.211973667144775</v>
+      </c>
+      <c r="D1">
         <v>-1</v>
       </c>
-      <c r="D1">
-        <v>1.68952102158201</v>
-      </c>
       <c r="E1">
-        <v>1.066490363321921</v>
+        <v>1.69395923614502</v>
       </c>
     </row>
   </sheetData>
